--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
@@ -496,28 +496,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.0125</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.0125</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.0125</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-10.3216971364422</v>
+        <v>-4.07624639599374</v>
       </c>
       <c r="B2" t="n">
-        <v>-34.0633064809665</v>
+        <v>-16.5445183932439</v>
       </c>
       <c r="C2" t="n">
-        <v>-176.655750264137</v>
+        <v>-97.9091347784378</v>
       </c>
       <c r="D2" t="n">
-        <v>-269.903608276541</v>
+        <v>-158.416863179303</v>
       </c>
       <c r="E2" t="n">
-        <v>-118.921159063506</v>
+        <v>-71.6036731691387</v>
       </c>
       <c r="F2" t="n">
-        <v>-88.9836830126031</v>
+        <v>-54.272609210364</v>
       </c>
       <c r="G2" t="n">
-        <v>-76.1244096941319</v>
+        <v>-46.7670135687774</v>
       </c>
       <c r="H2" t="n">
-        <v>-68.9528981630016</v>
+        <v>-42.5496213200203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-13.5529306458149</v>
+        <v>-7.55410078319135</v>
       </c>
       <c r="B3" t="n">
-        <v>-44.2295791439978</v>
+        <v>-27.4106695045037</v>
       </c>
       <c r="C3" t="n">
-        <v>-228.217098337934</v>
+        <v>-152.770939935539</v>
       </c>
       <c r="D3" t="n">
-        <v>-346.839076744869</v>
+        <v>-240.31705920538</v>
       </c>
       <c r="E3" t="n">
-        <v>-152.170773274912</v>
+        <v>-107.034161307627</v>
       </c>
       <c r="F3" t="n">
-        <v>-113.526813068861</v>
+        <v>-80.444068544298</v>
       </c>
       <c r="G3" t="n">
-        <v>-96.9224252423677</v>
+        <v>-68.9554633943859</v>
       </c>
       <c r="H3" t="n">
-        <v>-87.6633100545328</v>
+        <v>-62.5175043012811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-23.5384747180313</v>
+        <v>-17.5689297782356</v>
       </c>
       <c r="B4" t="n">
-        <v>-75.1818622143301</v>
+        <v>-58.3789491298995</v>
       </c>
       <c r="C4" t="n">
-        <v>-387.020485598383</v>
+        <v>-312.166423273576</v>
       </c>
       <c r="D4" t="n">
-        <v>-586.599573516183</v>
+        <v>-481.453593321953</v>
       </c>
       <c r="E4" t="n">
-        <v>-256.668845711778</v>
+        <v>-212.218465288699</v>
       </c>
       <c r="F4" t="n">
-        <v>-191.109200902205</v>
+        <v>-158.561895715402</v>
       </c>
       <c r="G4" t="n">
-        <v>-162.933054984171</v>
+        <v>-135.431004018075</v>
       </c>
       <c r="H4" t="n">
-        <v>-147.224574154641</v>
+        <v>-122.501936387262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-8.86918492061735</v>
+        <v>-1.79487107518885</v>
       </c>
       <c r="B5" t="n">
-        <v>-27.7463803791153</v>
+        <v>-7.2634536420866</v>
       </c>
       <c r="C5" t="n">
-        <v>-145.933932883773</v>
+        <v>-55.0179061598168</v>
       </c>
       <c r="D5" t="n">
-        <v>-224.082595922652</v>
+        <v>-96.6104368661042</v>
       </c>
       <c r="E5" t="n">
-        <v>-98.7556373018343</v>
+        <v>-44.894650495659</v>
       </c>
       <c r="F5" t="n">
-        <v>-73.830538283167</v>
+        <v>-34.4001445957307</v>
       </c>
       <c r="G5" t="n">
-        <v>-63.100966789362</v>
+        <v>-29.7855082332523</v>
       </c>
       <c r="H5" t="n">
-        <v>-57.1104495897753</v>
+        <v>-27.1630991279277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-12.7213863305722</v>
+        <v>-5.32001766774863</v>
       </c>
       <c r="B6" t="n">
-        <v>-38.9701704269943</v>
+        <v>-17.6430599679238</v>
       </c>
       <c r="C6" t="n">
-        <v>-204.151342301304</v>
+        <v>-109.59230911006</v>
       </c>
       <c r="D6" t="n">
-        <v>-312.283776335449</v>
+        <v>-179.964628890143</v>
       </c>
       <c r="E6" t="n">
-        <v>-137.22912182154</v>
+        <v>-81.3723701386787</v>
       </c>
       <c r="F6" t="n">
-        <v>-102.415357794324</v>
+        <v>-61.5372438639146</v>
       </c>
       <c r="G6" t="n">
-        <v>-87.4421772462312</v>
+        <v>-52.9072588741869</v>
       </c>
       <c r="H6" t="n">
-        <v>-79.090204999119</v>
+        <v>-48.0478374505808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-35.4845921073325</v>
+        <v>-23.7207655900385</v>
       </c>
       <c r="B7" t="n">
-        <v>-104.806501627597</v>
+        <v>-71.0273845544909</v>
       </c>
       <c r="C7" t="n">
-        <v>-550.760757114141</v>
+        <v>-401.69760881538</v>
       </c>
       <c r="D7" t="n">
-        <v>-843.95669424722</v>
+        <v>-635.97673587236</v>
       </c>
       <c r="E7" t="n">
-        <v>-370.951576991178</v>
+        <v>-283.240548698823</v>
       </c>
       <c r="F7" t="n">
-        <v>-276.839147661723</v>
+        <v>-212.666410520793</v>
       </c>
       <c r="G7" t="n">
-        <v>-236.349103038144</v>
+        <v>-182.138469153405</v>
       </c>
       <c r="H7" t="n">
-        <v>-213.755135854116</v>
+        <v>-165.027968276439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-16.3369189024247</v>
+        <v>24.559686710834</v>
       </c>
       <c r="B8" t="n">
-        <v>-62.776167695807</v>
+        <v>53.0572210540936</v>
       </c>
       <c r="C8" t="n">
-        <v>-313.925979794556</v>
+        <v>204.716701353779</v>
       </c>
       <c r="D8" t="n">
-        <v>-473.251242851189</v>
+        <v>257.208514300368</v>
       </c>
       <c r="E8" t="n">
-        <v>-208.39677076511</v>
+        <v>101.209018978881</v>
       </c>
       <c r="F8" t="n">
-        <v>-156.311506064767</v>
+        <v>70.7920457241807</v>
       </c>
       <c r="G8" t="n">
-        <v>-134.073346567051</v>
+        <v>58.036478614446</v>
       </c>
       <c r="H8" t="n">
-        <v>-121.709972952281</v>
+        <v>51.0993353761491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-11.6333379589562</v>
+        <v>9.85552647781995</v>
       </c>
       <c r="B9" t="n">
-        <v>-45.3939706366568</v>
+        <v>14.5363020793592</v>
       </c>
       <c r="C9" t="n">
-        <v>-225.404751829436</v>
+        <v>44.3565569606309</v>
       </c>
       <c r="D9" t="n">
-        <v>-336.758864310625</v>
+        <v>43.8964513402928</v>
       </c>
       <c r="E9" t="n">
-        <v>-147.123770306189</v>
+        <v>14.2302051324582</v>
       </c>
       <c r="F9" t="n">
-        <v>-109.662170661658</v>
+        <v>8.66657743710601</v>
       </c>
       <c r="G9" t="n">
-        <v>-93.6076034391444</v>
+        <v>6.4670130144984</v>
       </c>
       <c r="H9" t="n">
-        <v>-84.6620031598775</v>
+        <v>5.34567593260262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.82594551385253</v>
+        <v>0.602978972867351</v>
       </c>
       <c r="B10" t="n">
-        <v>-31.1381886489592</v>
+        <v>-7.98869594528342</v>
       </c>
       <c r="C10" t="n">
-        <v>-152.309648543822</v>
+        <v>-47.7875138721813</v>
       </c>
       <c r="D10" t="n">
-        <v>-224.31695194148</v>
+        <v>-76.7227847346437</v>
       </c>
       <c r="E10" t="n">
-        <v>-96.9586309170526</v>
+        <v>-34.4230044468076</v>
       </c>
       <c r="F10" t="n">
-        <v>-71.7387966646421</v>
+        <v>-25.8954281649099</v>
       </c>
       <c r="G10" t="n">
-        <v>-60.9297658005301</v>
+        <v>-22.1652988813102</v>
       </c>
       <c r="H10" t="n">
-        <v>-54.9178838486218</v>
+        <v>-20.0547205620826</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-9.59801100259631</v>
+        <v>-3.79044814441503</v>
       </c>
       <c r="B2" t="n">
-        <v>-31.6750226311929</v>
+        <v>-15.3845310002717</v>
       </c>
       <c r="C2" t="n">
-        <v>-164.269868830071</v>
+        <v>-91.0444222917826</v>
       </c>
       <c r="D2" t="n">
-        <v>-250.979830897422</v>
+        <v>-147.30976657157</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.583228518025</v>
+        <v>-66.5833180163036</v>
       </c>
       <c r="F2" t="n">
-        <v>-82.7447615752164</v>
+        <v>-50.4673885946081</v>
       </c>
       <c r="G2" t="n">
-        <v>-70.7870917109927</v>
+        <v>-43.4880334946949</v>
       </c>
       <c r="H2" t="n">
-        <v>-64.118397050498</v>
+        <v>-39.5663356701269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-12.5940650785224</v>
+        <v>-7.01965053607106</v>
       </c>
       <c r="B3" t="n">
-        <v>-41.1003503738266</v>
+        <v>-25.4713732850236</v>
       </c>
       <c r="C3" t="n">
-        <v>-212.070810632165</v>
+        <v>-141.962444133759</v>
       </c>
       <c r="D3" t="n">
-        <v>-322.300321491599</v>
+        <v>-223.314703085732</v>
       </c>
       <c r="E3" t="n">
-        <v>-141.404739075021</v>
+        <v>-99.4615281639891</v>
       </c>
       <c r="F3" t="n">
-        <v>-105.494826861524</v>
+        <v>-74.7526760745912</v>
       </c>
       <c r="G3" t="n">
-        <v>-90.0651942351323</v>
+        <v>-64.0768861144235</v>
       </c>
       <c r="H3" t="n">
-        <v>-81.4611585256206</v>
+        <v>-58.094410596004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.6475418405815</v>
+        <v>-16.1575525612648</v>
       </c>
       <c r="B4" t="n">
-        <v>-69.1422246952486</v>
+        <v>-53.6891518689016</v>
       </c>
       <c r="C4" t="n">
-        <v>-355.929696189504</v>
+        <v>-287.088938004247</v>
       </c>
       <c r="D4" t="n">
-        <v>-539.475856591142</v>
+        <v>-442.776642521849</v>
       </c>
       <c r="E4" t="n">
-        <v>-236.04968645072</v>
+        <v>-195.170169763036</v>
       </c>
       <c r="F4" t="n">
-        <v>-175.756690788527</v>
+        <v>-145.824031205883</v>
       </c>
       <c r="G4" t="n">
-        <v>-149.844039056691</v>
+        <v>-124.551329731974</v>
       </c>
       <c r="H4" t="n">
-        <v>-135.397478687648</v>
+        <v>-112.660902002461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-8.4012941067719</v>
+        <v>-1.70018326614728</v>
       </c>
       <c r="B5" t="n">
-        <v>-26.2826295820527</v>
+        <v>-6.88027263206793</v>
       </c>
       <c r="C5" t="n">
-        <v>-138.235238219517</v>
+        <v>-52.1154553574496</v>
       </c>
       <c r="D5" t="n">
-        <v>-212.261195296409</v>
+        <v>-91.5137863468253</v>
       </c>
       <c r="E5" t="n">
-        <v>-93.5458174680446</v>
+        <v>-42.5262485798425</v>
       </c>
       <c r="F5" t="n">
-        <v>-69.9356335142231</v>
+        <v>-32.585376745544</v>
       </c>
       <c r="G5" t="n">
-        <v>-59.7720968909707</v>
+        <v>-28.2141839444036</v>
       </c>
       <c r="H5" t="n">
-        <v>-54.0976073752081</v>
+        <v>-25.7301191335669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-12.0148551125903</v>
+        <v>-5.02454998326788</v>
       </c>
       <c r="B6" t="n">
-        <v>-36.8058118216295</v>
+        <v>-16.6631846364038</v>
       </c>
       <c r="C6" t="n">
-        <v>-192.813010709083</v>
+        <v>-103.505677855816</v>
       </c>
       <c r="D6" t="n">
-        <v>-294.939893277672</v>
+        <v>-169.969599642597</v>
       </c>
       <c r="E6" t="n">
-        <v>-129.607573661326</v>
+        <v>-76.8530419546126</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.7273261913084</v>
+        <v>-58.1195358619235</v>
       </c>
       <c r="G6" t="n">
-        <v>-82.5857389314627</v>
+        <v>-49.9688503484882</v>
       </c>
       <c r="H6" t="n">
-        <v>-74.6976256515231</v>
+        <v>-45.3793156218105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-32.4618367080907</v>
+        <v>-21.7001118921023</v>
       </c>
       <c r="B7" t="n">
-        <v>-95.8785585442386</v>
+        <v>-64.9769159593694</v>
       </c>
       <c r="C7" t="n">
-        <v>-503.844195491518</v>
+        <v>-367.478993247349</v>
       </c>
       <c r="D7" t="n">
-        <v>-772.064233244832</v>
+        <v>-581.801050089202</v>
       </c>
       <c r="E7" t="n">
-        <v>-339.352062508507</v>
+        <v>-259.112699200825</v>
       </c>
       <c r="F7" t="n">
-        <v>-253.256601586942</v>
+        <v>-194.550419819965</v>
       </c>
       <c r="G7" t="n">
-        <v>-216.215701894528</v>
+        <v>-166.623001499789</v>
       </c>
       <c r="H7" t="n">
-        <v>-195.546402072865</v>
+        <v>-150.970058842828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-13.8169409266359</v>
+        <v>20.7713426556776</v>
       </c>
       <c r="B8" t="n">
-        <v>-53.0929121846116</v>
+        <v>44.8731179614947</v>
       </c>
       <c r="C8" t="n">
-        <v>-265.502739167905</v>
+        <v>173.139046976669</v>
       </c>
       <c r="D8" t="n">
-        <v>-400.252000085611</v>
+        <v>217.533971316252</v>
       </c>
       <c r="E8" t="n">
-        <v>-176.251463826258</v>
+        <v>85.5974767840974</v>
       </c>
       <c r="F8" t="n">
-        <v>-132.200377461005</v>
+        <v>59.8723369864768</v>
       </c>
       <c r="G8" t="n">
-        <v>-113.39246527559</v>
+        <v>49.084322533226</v>
       </c>
       <c r="H8" t="n">
-        <v>-102.93614827301</v>
+        <v>43.2172371363012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-10.4835190100933</v>
+        <v>8.88142333260069</v>
       </c>
       <c r="B9" t="n">
-        <v>-40.9073093029703</v>
+        <v>13.0995591912722</v>
       </c>
       <c r="C9" t="n">
-        <v>-203.126137064556</v>
+        <v>39.9724317955584</v>
       </c>
       <c r="D9" t="n">
-        <v>-303.474202182864</v>
+        <v>39.5578022168011</v>
       </c>
       <c r="E9" t="n">
-        <v>-132.582311997056</v>
+        <v>12.8237163357573</v>
       </c>
       <c r="F9" t="n">
-        <v>-98.8233518939852</v>
+        <v>7.8099879531479</v>
       </c>
       <c r="G9" t="n">
-        <v>-84.3555902532716</v>
+        <v>5.82782466349817</v>
       </c>
       <c r="H9" t="n">
-        <v>-76.2941575917894</v>
+        <v>4.81731859410932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.37182631279421</v>
+        <v>0.5679896761838</v>
       </c>
       <c r="B10" t="n">
-        <v>-29.3313207980856</v>
+        <v>-7.5251327612888</v>
       </c>
       <c r="C10" t="n">
-        <v>-143.471516999491</v>
+        <v>-45.0145291150315</v>
       </c>
       <c r="D10" t="n">
-        <v>-211.300424440849</v>
+        <v>-72.2707616985781</v>
       </c>
       <c r="E10" t="n">
-        <v>-91.3323745203243</v>
+        <v>-32.4255273049413</v>
       </c>
       <c r="F10" t="n">
-        <v>-67.5759814535514</v>
+        <v>-24.392784027087</v>
       </c>
       <c r="G10" t="n">
-        <v>-57.3941704508014</v>
+        <v>-20.8791044142796</v>
       </c>
       <c r="H10" t="n">
-        <v>-51.7311423241625</v>
+        <v>-18.8909974486287</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.589931008961622</v>
+        <v>-0.232975654815002</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.94686983111888</v>
+        <v>-0.945592987227938</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.0966637186291</v>
+        <v>-5.59594356459797</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.4261945345012</v>
+        <v>-9.05423000660864</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.7968744311947</v>
+        <v>-4.09246915498901</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.08581420350028</v>
+        <v>-3.10192158200505</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.35084940236354</v>
+        <v>-2.67294332860656</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.94096554533749</v>
+        <v>-2.43190055903022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.540993433199103</v>
+        <v>-0.301537654418137</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.76551570249875</v>
+        <v>-1.09415392058444</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.10976044747201</v>
+        <v>-6.0981700156713</v>
       </c>
       <c r="D3" t="n">
-        <v>-13.8448035926278</v>
+        <v>-9.5927555680348</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.07421311434053</v>
+        <v>-4.27249130897606</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.5316590165863</v>
+        <v>-3.21109241680672</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.86886031930248</v>
+        <v>-2.75250083206788</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.49926346643291</v>
+        <v>-2.49551629613287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.472524437768666</v>
+        <v>-0.352688471326416</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.50924253159081</v>
+        <v>-1.17193150557032</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.76926455741174</v>
+        <v>-6.26660246318371</v>
       </c>
       <c r="D4" t="n">
-        <v>-11.7757262095977</v>
+        <v>-9.66496730231583</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.15251321360191</v>
+        <v>-4.26019154579523</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.83643242777995</v>
+        <v>-3.18305971487012</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.27080879804628</v>
+        <v>-2.71871732542913</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.9554680140282</v>
+        <v>-2.45917202836521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.441126235722487</v>
+        <v>-0.0892714187483777</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.38002042364807</v>
+        <v>-0.361262054197357</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.25830919677296</v>
+        <v>-2.73642302633641</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.1451855965364</v>
+        <v>-4.80510878143728</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.91180451521143</v>
+        <v>-2.2329231326759</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.67210603068038</v>
+        <v>-1.71095838339649</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.13844983494869</v>
+        <v>-1.48144043039089</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.84049976107645</v>
+        <v>-1.35100979132877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.40555384289747</v>
+        <v>-0.169600509989453</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.24235692277149</v>
+        <v>-0.562455268987983</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.50828135012285</v>
+        <v>-3.49376875732327</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.9555097436994</v>
+        <v>-5.73721644288212</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.37482175809902</v>
+        <v>-2.59412587259523</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.26496977970006</v>
+        <v>-1.96178821095569</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.7876294369197</v>
+        <v>-1.68666697135301</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.52137115715586</v>
+        <v>-1.5317501264911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.356216744629484</v>
+        <v>-0.238124025014692</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.0521138502272</v>
+        <v>-0.713017741024535</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.52888429365174</v>
+        <v>-4.03249427539832</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.47217026825802</v>
+        <v>-6.38433610360493</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.72384619136332</v>
+        <v>-2.84334749852499</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.77908619233311</v>
+        <v>-2.13487973085931</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.37262155432664</v>
+        <v>-1.82842097655723</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.1458090433017</v>
+        <v>-1.6566549632144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.02447253134124</v>
+        <v>6.05008723716126</v>
       </c>
       <c r="B8" t="n">
-        <v>-15.4644192104761</v>
+        <v>13.0702325203934</v>
       </c>
       <c r="C8" t="n">
-        <v>-77.3332162633231</v>
+        <v>50.4303624340571</v>
       </c>
       <c r="D8" t="n">
-        <v>-116.581751960282</v>
+        <v>63.3613110777757</v>
       </c>
       <c r="E8" t="n">
-        <v>-51.3369188262255</v>
+        <v>24.932052318877</v>
       </c>
       <c r="F8" t="n">
-        <v>-38.506120171587</v>
+        <v>17.4390682328805</v>
       </c>
       <c r="G8" t="n">
-        <v>-33.0279230537166</v>
+        <v>14.2968337784272</v>
       </c>
       <c r="H8" t="n">
-        <v>-29.9823024073434</v>
+        <v>12.5879226566145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.44817132595927</v>
+        <v>3.76839995842469</v>
       </c>
       <c r="B9" t="n">
-        <v>-17.3570267854172</v>
+        <v>5.5581607207678</v>
       </c>
       <c r="C9" t="n">
-        <v>-86.1866952855739</v>
+        <v>16.9603569918345</v>
       </c>
       <c r="D9" t="n">
-        <v>-128.764515332926</v>
+        <v>16.7844290995545</v>
       </c>
       <c r="E9" t="n">
-        <v>-56.2548546901945</v>
+        <v>5.44112022327926</v>
       </c>
       <c r="F9" t="n">
-        <v>-41.9308821595866</v>
+        <v>3.31378847463651</v>
       </c>
       <c r="G9" t="n">
-        <v>-35.792191284979</v>
+        <v>2.47275390409772</v>
       </c>
       <c r="H9" t="n">
-        <v>-32.3717144797733</v>
+        <v>2.04399480915682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.42410755758453</v>
+        <v>0.263823055553483</v>
       </c>
       <c r="B10" t="n">
-        <v>-13.6239776898098</v>
+        <v>-3.49531620339943</v>
       </c>
       <c r="C10" t="n">
-        <v>-66.6404612386843</v>
+        <v>-20.9086029436666</v>
       </c>
       <c r="D10" t="n">
-        <v>-98.1460155935889</v>
+        <v>-33.5687319294278</v>
       </c>
       <c r="E10" t="n">
-        <v>-42.4225776052834</v>
+        <v>-15.061192219195</v>
       </c>
       <c r="F10" t="n">
-        <v>-31.3880738623361</v>
+        <v>-11.3300982136158</v>
       </c>
       <c r="G10" t="n">
-        <v>-26.6587687315429</v>
+        <v>-9.69804444476025</v>
       </c>
       <c r="H10" t="n">
-        <v>-24.0283734150412</v>
+        <v>-8.77459728288709</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.541829827208847</v>
+        <v>-0.213979527901868</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.788127981355</v>
+        <v>-0.868492208574413</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.27341244136321</v>
+        <v>-5.1396673316317</v>
       </c>
       <c r="D2" t="n">
-        <v>-14.168389510209</v>
+        <v>-8.31597560641038</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.24267794482733</v>
+        <v>-3.75878165653348</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.67113236842603</v>
+        <v>-2.84900032251488</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.99609436371857</v>
+        <v>-2.4549996522935</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.61963119081463</v>
+        <v>-2.23361077765309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.496381349153892</v>
+        <v>-0.276671875360248</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.61992551587254</v>
+        <v>-1.00392641749838</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.35853987107588</v>
+        <v>-5.59529501467108</v>
       </c>
       <c r="D3" t="n">
-        <v>-12.7031159055678</v>
+        <v>-8.80170563773217</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.5733136776079</v>
+        <v>-3.92016773227134</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.1579636249127</v>
+        <v>-2.94629525664822</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.54982147126459</v>
+        <v>-2.52552063061037</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.21070278106986</v>
+        <v>-2.28972787818308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.433063255886565</v>
+        <v>-0.323234959926133</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.38320356030597</v>
+        <v>-1.07406185355178</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.12044232244347</v>
+        <v>-5.74326965790014</v>
       </c>
       <c r="D4" t="n">
-        <v>-10.7923187144318</v>
+        <v>-8.85783225888351</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.72221957200317</v>
+        <v>-3.90441694451732</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.51604654779054</v>
+        <v>-2.91723791114878</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.99765894469527</v>
+        <v>-2.49167340920039</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.70865271406398</v>
+        <v>-2.2538031057568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.404921809610503</v>
+        <v>-0.0819446713861536</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.26675840607805</v>
+        <v>-0.331612297984535</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.66260008284527</v>
+        <v>-2.5118373697933</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.2304699986911</v>
+        <v>-4.41074047651734</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.50867940215569</v>
+        <v>-2.04966107745422</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.37072633322168</v>
+        <v>-1.57053539025734</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.88086874827977</v>
+        <v>-1.35985459790566</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.60737224474869</v>
+        <v>-1.24012875500451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.371937787489259</v>
+        <v>-0.155542450274537</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.13937888450587</v>
+        <v>-0.515833771453017</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.96881476557548</v>
+        <v>-3.2041728721245</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.1303049699752</v>
+        <v>-5.26166285311725</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.01219604711917</v>
+        <v>-2.37910071478632</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.9943388710237</v>
+        <v>-1.79917705006149</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.55656491305882</v>
+        <v>-1.54686040471042</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.3123765834192</v>
+        <v>-1.40478450151814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.32631949215155</v>
+        <v>-0.218138288228705</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.963809990596765</v>
+        <v>-0.653174199848979</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.06484532821646</v>
+        <v>-3.69404724480517</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.76110146712791</v>
+        <v>-5.84849911314565</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.41130397808813</v>
+        <v>-2.60470549382551</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.54583763565297</v>
+        <v>-1.95569938831277</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.17348755314971</v>
+        <v>-1.67496170100031</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.96571140414172</v>
+        <v>-1.51761200004443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.78814275627274</v>
+        <v>5.69480695017503</v>
       </c>
       <c r="B8" t="n">
-        <v>-14.556299528924</v>
+        <v>12.3027070651735</v>
       </c>
       <c r="C8" t="n">
-        <v>-72.7919648415513</v>
+        <v>47.4689318073479</v>
       </c>
       <c r="D8" t="n">
-        <v>-109.73570219766</v>
+        <v>59.6405341862844</v>
       </c>
       <c r="E8" t="n">
-        <v>-48.3222523365357</v>
+        <v>23.4679632312687</v>
       </c>
       <c r="F8" t="n">
-        <v>-36.2449188220827</v>
+        <v>16.4149909057811</v>
       </c>
       <c r="G8" t="n">
-        <v>-31.0884187918591</v>
+        <v>13.4572784119203</v>
       </c>
       <c r="H8" t="n">
-        <v>-28.2216466372314</v>
+        <v>11.8487199643735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.21300390941625</v>
+        <v>3.569170922989</v>
       </c>
       <c r="B9" t="n">
-        <v>-16.4393896602073</v>
+        <v>5.26431001186958</v>
       </c>
       <c r="C9" t="n">
-        <v>-81.630148114739</v>
+        <v>16.0636911385792</v>
       </c>
       <c r="D9" t="n">
-        <v>-121.956949662841</v>
+        <v>15.8970642612318</v>
       </c>
       <c r="E9" t="n">
-        <v>-53.2807541270506</v>
+        <v>5.15345725073569</v>
       </c>
       <c r="F9" t="n">
-        <v>-39.7140661900009</v>
+        <v>3.13859399190551</v>
       </c>
       <c r="G9" t="n">
-        <v>-33.8999176875615</v>
+        <v>2.34202351968566</v>
       </c>
       <c r="H9" t="n">
-        <v>-30.6602757996018</v>
+        <v>1.93593220466775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.24033284693499</v>
+        <v>0.249663451954109</v>
       </c>
       <c r="B10" t="n">
-        <v>-12.8927674355365</v>
+        <v>-3.30771966529258</v>
       </c>
       <c r="C10" t="n">
-        <v>-63.0638120605463</v>
+        <v>-19.7864207716881</v>
       </c>
       <c r="D10" t="n">
-        <v>-92.8784370161682</v>
+        <v>-31.7670700676275</v>
       </c>
       <c r="E10" t="n">
-        <v>-40.1457224559323</v>
+        <v>-14.2528454615154</v>
       </c>
       <c r="F10" t="n">
-        <v>-29.7034497391481</v>
+        <v>-10.7220023854851</v>
       </c>
       <c r="G10" t="n">
-        <v>-25.2279703621808</v>
+        <v>-9.17754230464658</v>
       </c>
       <c r="H10" t="n">
-        <v>-22.7387505578541</v>
+        <v>-8.303657322734</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.9140967887423</v>
+        <v>5.49495748023551</v>
       </c>
       <c r="B2" t="n">
-        <v>45.9188190716598</v>
+        <v>22.3027305687899</v>
       </c>
       <c r="C2" t="n">
-        <v>238.139636822392</v>
+        <v>131.985773250344</v>
       </c>
       <c r="D2" t="n">
-        <v>363.841806201749</v>
+        <v>213.552823543274</v>
       </c>
       <c r="E2" t="n">
-        <v>160.310896121623</v>
+        <v>96.5248665732772</v>
       </c>
       <c r="F2" t="n">
-        <v>119.953875965294</v>
+        <v>73.161838363229</v>
       </c>
       <c r="G2" t="n">
-        <v>102.619016085093</v>
+        <v>63.0439689049709</v>
       </c>
       <c r="H2" t="n">
-        <v>92.9515065421686</v>
+        <v>57.3587406746137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15.9317965465091</v>
+        <v>8.88002749477604</v>
       </c>
       <c r="B3" t="n">
-        <v>51.9929360427657</v>
+        <v>32.2219024919311</v>
       </c>
       <c r="C3" t="n">
-        <v>268.274698231218</v>
+        <v>179.585921073355</v>
       </c>
       <c r="D3" t="n">
-        <v>407.71769217196</v>
+        <v>282.498493792394</v>
       </c>
       <c r="E3" t="n">
-        <v>178.880410702129</v>
+        <v>125.821235719664</v>
       </c>
       <c r="F3" t="n">
-        <v>133.453504312381</v>
+        <v>94.5639409596583</v>
       </c>
       <c r="G3" t="n">
-        <v>113.934646321861</v>
+        <v>81.0588087757128</v>
       </c>
       <c r="H3" t="n">
-        <v>103.050333310282</v>
+        <v>73.4908327322609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.899419749981</v>
+        <v>10.3744160346368</v>
       </c>
       <c r="B4" t="n">
-        <v>44.3947313077901</v>
+        <v>34.4726465176469</v>
       </c>
       <c r="C4" t="n">
-        <v>228.53478169733</v>
+        <v>184.333615533971</v>
       </c>
       <c r="D4" t="n">
-        <v>346.385812807806</v>
+        <v>284.29733293603</v>
       </c>
       <c r="E4" t="n">
-        <v>151.562412859243</v>
+        <v>125.314556830006</v>
       </c>
       <c r="F4" t="n">
-        <v>112.849580664986</v>
+        <v>93.6304654954047</v>
       </c>
       <c r="G4" t="n">
-        <v>96.2116258381392</v>
+        <v>79.9717226607975</v>
       </c>
       <c r="H4" t="n">
-        <v>86.9358009896873</v>
+        <v>72.3371354528634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.3880374235296</v>
+        <v>5.34018915226286</v>
       </c>
       <c r="B5" t="n">
-        <v>82.5524025448573</v>
+        <v>21.6105863444002</v>
       </c>
       <c r="C5" t="n">
-        <v>434.189851352408</v>
+        <v>163.691994214101</v>
       </c>
       <c r="D5" t="n">
-        <v>666.701616900891</v>
+        <v>287.440147696103</v>
       </c>
       <c r="E5" t="n">
-        <v>293.822654080362</v>
+        <v>133.572783519466</v>
       </c>
       <c r="F5" t="n">
-        <v>219.664267309012</v>
+        <v>102.34901077063</v>
       </c>
       <c r="G5" t="n">
-        <v>187.741115784818</v>
+        <v>88.6193165406683</v>
       </c>
       <c r="H5" t="n">
-        <v>169.917832871692</v>
+        <v>80.8169953318446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24.2409971743916</v>
+        <v>10.1374590709256</v>
       </c>
       <c r="B6" t="n">
-        <v>74.2588713728529</v>
+        <v>33.6193993104544</v>
       </c>
       <c r="C6" t="n">
-        <v>389.016730038382</v>
+        <v>208.831552351145</v>
       </c>
       <c r="D6" t="n">
-        <v>595.066445043296</v>
+        <v>342.928195642665</v>
       </c>
       <c r="E6" t="n">
-        <v>261.49435823089</v>
+        <v>155.057581253138</v>
       </c>
       <c r="F6" t="n">
-        <v>195.155648479929</v>
+        <v>117.261131441317</v>
       </c>
       <c r="G6" t="n">
-        <v>166.623787413365</v>
+        <v>100.816426727942</v>
       </c>
       <c r="H6" t="n">
-        <v>150.708844624756</v>
+        <v>91.5566481206588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21.2657537633583</v>
+        <v>14.2157463326699</v>
       </c>
       <c r="B7" t="n">
-        <v>62.8100570994287</v>
+        <v>42.5663867241985</v>
       </c>
       <c r="C7" t="n">
-        <v>330.068402868575</v>
+        <v>240.735539824128</v>
       </c>
       <c r="D7" t="n">
-        <v>505.77938707912</v>
+        <v>381.137949208419</v>
       </c>
       <c r="E7" t="n">
-        <v>222.309583566941</v>
+        <v>169.744765452243</v>
       </c>
       <c r="F7" t="n">
-        <v>165.908435087116</v>
+        <v>127.450007208563</v>
       </c>
       <c r="G7" t="n">
-        <v>141.642936522896</v>
+        <v>109.154751564721</v>
       </c>
       <c r="H7" t="n">
-        <v>128.102475321606</v>
+        <v>98.9005066429622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.20397958610467</v>
+        <v>-6.31994454952876</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1541921743816</v>
+        <v>-13.6532154893508</v>
       </c>
       <c r="C8" t="n">
-        <v>80.782577087308</v>
+        <v>-52.6797518287394</v>
       </c>
       <c r="D8" t="n">
-        <v>121.781749418477</v>
+        <v>-66.1874708413087</v>
       </c>
       <c r="E8" t="n">
-        <v>53.6267441455335</v>
+        <v>-26.044118371289</v>
       </c>
       <c r="F8" t="n">
-        <v>40.2236421992661</v>
+        <v>-18.2169181876072</v>
       </c>
       <c r="G8" t="n">
-        <v>34.5010962822961</v>
+        <v>-14.9345279120116</v>
       </c>
       <c r="H8" t="n">
-        <v>31.3196291646401</v>
+        <v>-13.1493927384902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.0901161904068</v>
+        <v>-4.31224254523722</v>
       </c>
       <c r="B9" t="n">
-        <v>19.8619334966204</v>
+        <v>-6.36029545637208</v>
       </c>
       <c r="C9" t="n">
-        <v>98.6248642246596</v>
+        <v>-19.4080176758027</v>
       </c>
       <c r="D9" t="n">
-        <v>147.347369563079</v>
+        <v>-19.2067004721211</v>
       </c>
       <c r="E9" t="n">
-        <v>64.3733628191107</v>
+        <v>-6.22636407478997</v>
       </c>
       <c r="F9" t="n">
-        <v>47.9822035884654</v>
+        <v>-3.79202308775577</v>
       </c>
       <c r="G9" t="n">
-        <v>40.9575978529827</v>
+        <v>-2.82961328595522</v>
       </c>
       <c r="H9" t="n">
-        <v>37.0434895398697</v>
+        <v>-2.33897714561452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.36378125597953</v>
+        <v>-0.336223697812716</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3627894202642</v>
+        <v>4.45453160439732</v>
       </c>
       <c r="C10" t="n">
-        <v>84.9285224697625</v>
+        <v>26.6465255777931</v>
       </c>
       <c r="D10" t="n">
-        <v>125.08010802631</v>
+        <v>42.7809584591365</v>
       </c>
       <c r="E10" t="n">
-        <v>54.0645543023959</v>
+        <v>19.1944169958234</v>
       </c>
       <c r="F10" t="n">
-        <v>40.0018650343994</v>
+        <v>14.4394033719729</v>
       </c>
       <c r="G10" t="n">
-        <v>33.9747024127551</v>
+        <v>12.3594670599528</v>
       </c>
       <c r="H10" t="n">
-        <v>30.6224508888387</v>
+        <v>11.1825994095942</v>
       </c>
     </row>
     <row r="11">
@@ -3481,158 +3481,158 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.43938932297334</v>
+        <v>0.568443877265744</v>
       </c>
       <c r="B2" t="n">
-        <v>4.7502226625855</v>
+        <v>2.30717902435758</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6351348436958</v>
+        <v>13.6537006810701</v>
       </c>
       <c r="D2" t="n">
-        <v>37.6388075381121</v>
+        <v>22.0916714010284</v>
       </c>
       <c r="E2" t="n">
-        <v>16.5838858056851</v>
+        <v>9.9853310248218</v>
       </c>
       <c r="F2" t="n">
-        <v>12.4090216515822</v>
+        <v>7.56846603757542</v>
       </c>
       <c r="G2" t="n">
-        <v>10.6157602846648</v>
+        <v>6.52178988672115</v>
       </c>
       <c r="H2" t="n">
-        <v>9.61567309056918</v>
+        <v>5.93366282840833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.31849350729731</v>
+        <v>0.734898827153882</v>
       </c>
       <c r="B3" t="n">
-        <v>4.30286367250476</v>
+        <v>2.66664020622879</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2020439915491</v>
+        <v>14.8622831233122</v>
       </c>
       <c r="D3" t="n">
-        <v>33.742153834921</v>
+        <v>23.3791856931637</v>
       </c>
       <c r="E3" t="n">
-        <v>14.8038960581073</v>
+        <v>10.4127919216274</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0444279430936</v>
+        <v>7.82598132079933</v>
       </c>
       <c r="G3" t="n">
-        <v>9.42907417836095</v>
+        <v>6.70831520902453</v>
       </c>
       <c r="H3" t="n">
-        <v>8.52830344636818</v>
+        <v>6.08199995025609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.15029680689498</v>
+        <v>0.858572361487186</v>
       </c>
       <c r="B4" t="n">
-        <v>3.67404672892058</v>
+        <v>2.85290867732251</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9132233128826</v>
+        <v>15.2551957683287</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6664120944392</v>
+        <v>23.5280551395336</v>
       </c>
       <c r="E4" t="n">
-        <v>12.543096236627</v>
+        <v>10.3708598755867</v>
       </c>
       <c r="F4" t="n">
-        <v>9.33927564124022</v>
+        <v>7.74872817893007</v>
       </c>
       <c r="G4" t="n">
-        <v>7.96234144867362</v>
+        <v>6.61834946158327</v>
       </c>
       <c r="H4" t="n">
-        <v>7.1946869784569</v>
+        <v>5.98652155471975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.09191878993917</v>
+        <v>0.220973344231569</v>
       </c>
       <c r="B5" t="n">
-        <v>3.41596148461482</v>
+        <v>0.894231159078638</v>
       </c>
       <c r="C5" t="n">
-        <v>17.966476607686</v>
+        <v>6.77346182954907</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5876531131406</v>
+        <v>11.8940750770802</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1581787895324</v>
+        <v>5.52714966287449</v>
       </c>
       <c r="F5" t="n">
-        <v>9.08955588864885</v>
+        <v>4.23513148016403</v>
       </c>
       <c r="G5" t="n">
-        <v>7.76859789454427</v>
+        <v>3.66700620168286</v>
       </c>
       <c r="H5" t="n">
-        <v>7.03108273951837</v>
+        <v>3.34415153097291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.00307574514725</v>
+        <v>0.419481065003823</v>
       </c>
       <c r="B6" t="n">
-        <v>3.07278088439394</v>
+        <v>1.39114755767399</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0972440015884</v>
+        <v>8.64130561453022</v>
       </c>
       <c r="D6" t="n">
-        <v>24.6234391052401</v>
+        <v>14.1901322334897</v>
       </c>
       <c r="E6" t="n">
-        <v>10.8204562026576</v>
+        <v>6.416175775992</v>
       </c>
       <c r="F6" t="n">
-        <v>8.07540614399715</v>
+        <v>4.85218474929594</v>
       </c>
       <c r="G6" t="n">
-        <v>6.89477741020826</v>
+        <v>4.17171420943211</v>
       </c>
       <c r="H6" t="n">
-        <v>6.23622805343824</v>
+        <v>3.78855095671695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.879962224690695</v>
+        <v>0.588237779282899</v>
       </c>
       <c r="B7" t="n">
-        <v>2.59903684549363</v>
+        <v>1.76136772651858</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6580028773205</v>
+        <v>9.96147061341229</v>
       </c>
       <c r="D7" t="n">
-        <v>20.9288022239638</v>
+        <v>15.7712254844864</v>
       </c>
       <c r="E7" t="n">
-        <v>9.19901725104591</v>
+        <v>7.02392132905838</v>
       </c>
       <c r="F7" t="n">
-        <v>6.86517662429454</v>
+        <v>5.2737934017337</v>
       </c>
       <c r="G7" t="n">
-        <v>5.86108702853369</v>
+        <v>4.51674834060919</v>
       </c>
       <c r="H7" t="n">
-        <v>5.30079208227341</v>
+        <v>4.09243475763986</v>
       </c>
     </row>
     <row r="8">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
@@ -637,28 +637,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.0125</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.0125</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.0125</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.79487107518885</v>
+        <v>-3.78903654200465</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.2634536420866</v>
+        <v>-12.6463422356965</v>
       </c>
       <c r="C5" t="n">
-        <v>-55.0179061598168</v>
+        <v>-78.1774816944854</v>
       </c>
       <c r="D5" t="n">
-        <v>-96.6104368661042</v>
+        <v>-128.631830993066</v>
       </c>
       <c r="E5" t="n">
-        <v>-44.894650495659</v>
+        <v>-58.3737979806253</v>
       </c>
       <c r="F5" t="n">
-        <v>-34.4001445957307</v>
+        <v>-44.2589120610745</v>
       </c>
       <c r="G5" t="n">
-        <v>-29.7855082332523</v>
+        <v>-38.1136845470463</v>
       </c>
       <c r="H5" t="n">
-        <v>-27.1630991279277</v>
+        <v>-34.649120269862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.32001766774863</v>
+        <v>-7.39639463415056</v>
       </c>
       <c r="B6" t="n">
-        <v>-17.6430599679238</v>
+        <v>-23.1759157084507</v>
       </c>
       <c r="C6" t="n">
-        <v>-109.59230911006</v>
+        <v>-133.553602610112</v>
       </c>
       <c r="D6" t="n">
-        <v>-179.964628890143</v>
+        <v>-213.143984723762</v>
       </c>
       <c r="E6" t="n">
-        <v>-81.3723701386787</v>
+        <v>-95.3426599976823</v>
       </c>
       <c r="F6" t="n">
-        <v>-61.5372438639146</v>
+        <v>-71.7558669057876</v>
       </c>
       <c r="G6" t="n">
-        <v>-52.9072588741869</v>
+        <v>-61.5396009500838</v>
       </c>
       <c r="H6" t="n">
-        <v>-48.0478374505808</v>
+        <v>-55.80733279201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-23.7207655900385</v>
+        <v>-27.0188698712956</v>
       </c>
       <c r="B7" t="n">
-        <v>-71.0273845544909</v>
+        <v>-79.6441803210324</v>
       </c>
       <c r="C7" t="n">
-        <v>-401.69760881538</v>
+        <v>-439.223184262847</v>
       </c>
       <c r="D7" t="n">
-        <v>-635.97673587236</v>
+        <v>-688.029696183832</v>
       </c>
       <c r="E7" t="n">
-        <v>-283.240548698823</v>
+        <v>-305.165637727188</v>
       </c>
       <c r="F7" t="n">
-        <v>-212.666410520793</v>
+        <v>-228.705166695971</v>
       </c>
       <c r="G7" t="n">
-        <v>-182.138469153405</v>
+        <v>-195.687987344141</v>
       </c>
       <c r="H7" t="n">
-        <v>-165.027968276439</v>
+        <v>-177.207683188406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24.559686710834</v>
+        <v>-4.80864910751761</v>
       </c>
       <c r="B8" t="n">
-        <v>53.0572210540936</v>
+        <v>-35.3561208434017</v>
       </c>
       <c r="C8" t="n">
-        <v>204.716701353779</v>
+        <v>-189.979788892408</v>
       </c>
       <c r="D8" t="n">
-        <v>257.208514300368</v>
+        <v>-295.009873489213</v>
       </c>
       <c r="E8" t="n">
-        <v>101.209018978881</v>
+        <v>-131.995533328015</v>
       </c>
       <c r="F8" t="n">
-        <v>70.7920457241807</v>
+        <v>-99.9654583044642</v>
       </c>
       <c r="G8" t="n">
-        <v>58.036478614446</v>
+        <v>-86.2818304079391</v>
       </c>
       <c r="H8" t="n">
-        <v>51.0993353761491</v>
+        <v>-78.6597993195596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.85552647781995</v>
+        <v>-5.60486063492113</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5363020793592</v>
+        <v>-31.0038782158061</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3565569606309</v>
+        <v>-160.115973543679</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8964513402928</v>
+        <v>-243.015521569853</v>
       </c>
       <c r="E9" t="n">
-        <v>14.2302051324582</v>
+        <v>-107.046236460749</v>
       </c>
       <c r="F9" t="n">
-        <v>8.66657743710601</v>
+        <v>-80.1674882226968</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4670130144984</v>
+        <v>-68.6272971373108</v>
       </c>
       <c r="H9" t="n">
-        <v>5.34567593260262</v>
+        <v>-62.1814569011579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.602978972867351</v>
+        <v>-5.46281376457215</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.98869594528342</v>
+        <v>-25.4423054467726</v>
       </c>
       <c r="C10" t="n">
-        <v>-47.7875138721813</v>
+        <v>-126.534706980895</v>
       </c>
       <c r="D10" t="n">
-        <v>-76.7227847346437</v>
+        <v>-187.574602364828</v>
       </c>
       <c r="E10" t="n">
-        <v>-34.4230044468076</v>
+        <v>-81.3308671585945</v>
       </c>
       <c r="F10" t="n">
-        <v>-25.8954281649099</v>
+        <v>-60.2702000125218</v>
       </c>
       <c r="G10" t="n">
-        <v>-22.1652988813102</v>
+        <v>-51.230595241751</v>
       </c>
       <c r="H10" t="n">
-        <v>-20.0547205620826</v>
+        <v>-46.1957107720957</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.70018326614728</v>
+        <v>-3.58914721652588</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.88027263206793</v>
+        <v>-11.9791887809216</v>
       </c>
       <c r="C5" t="n">
-        <v>-52.1154553574496</v>
+        <v>-74.0532554141888</v>
       </c>
       <c r="D5" t="n">
-        <v>-91.5137863468253</v>
+        <v>-121.845902790141</v>
       </c>
       <c r="E5" t="n">
-        <v>-42.5262485798425</v>
+        <v>-55.2943082542454</v>
       </c>
       <c r="F5" t="n">
-        <v>-32.585376745544</v>
+        <v>-41.9240483087097</v>
       </c>
       <c r="G5" t="n">
-        <v>-28.2141839444036</v>
+        <v>-36.1030101681739</v>
       </c>
       <c r="H5" t="n">
-        <v>-25.7301191335669</v>
+        <v>-32.821217793231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.02454998326788</v>
+        <v>-6.98560735250171</v>
       </c>
       <c r="B6" t="n">
-        <v>-16.6631846364038</v>
+        <v>-21.888751909802</v>
       </c>
       <c r="C6" t="n">
-        <v>-103.505677855816</v>
+        <v>-126.136188574724</v>
       </c>
       <c r="D6" t="n">
-        <v>-169.969599642597</v>
+        <v>-201.306212077044</v>
       </c>
       <c r="E6" t="n">
-        <v>-76.8530419546126</v>
+        <v>-90.0474379249194</v>
       </c>
       <c r="F6" t="n">
-        <v>-58.1195358619235</v>
+        <v>-67.7706282906808</v>
       </c>
       <c r="G6" t="n">
-        <v>-49.9688503484882</v>
+        <v>-58.1217620382281</v>
       </c>
       <c r="H6" t="n">
-        <v>-45.3793156218105</v>
+        <v>-52.7078574844251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.7001118921023</v>
+        <v>-24.71726712107</v>
       </c>
       <c r="B7" t="n">
-        <v>-64.9769159593694</v>
+        <v>-72.8596898764081</v>
       </c>
       <c r="C7" t="n">
-        <v>-367.478993247349</v>
+        <v>-401.807952105554</v>
       </c>
       <c r="D7" t="n">
-        <v>-581.801050089202</v>
+        <v>-629.419878359588</v>
       </c>
       <c r="E7" t="n">
-        <v>-259.112699200825</v>
+        <v>-279.170099260443</v>
       </c>
       <c r="F7" t="n">
-        <v>-194.550419819965</v>
+        <v>-209.222914360262</v>
       </c>
       <c r="G7" t="n">
-        <v>-166.623001499789</v>
+        <v>-179.018303822852</v>
       </c>
       <c r="H7" t="n">
-        <v>-150.970058842828</v>
+        <v>-162.11224459566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20.7713426556776</v>
+        <v>-4.06691255874634</v>
       </c>
       <c r="B8" t="n">
-        <v>44.8731179614947</v>
+        <v>-29.9024213810462</v>
       </c>
       <c r="C8" t="n">
-        <v>173.139046976669</v>
+        <v>-160.675310691025</v>
       </c>
       <c r="D8" t="n">
-        <v>217.533971316252</v>
+        <v>-249.504451795364</v>
       </c>
       <c r="E8" t="n">
-        <v>85.5974767840974</v>
+        <v>-111.635155776057</v>
       </c>
       <c r="F8" t="n">
-        <v>59.8723369864768</v>
+        <v>-84.5457359705612</v>
       </c>
       <c r="G8" t="n">
-        <v>49.084322533226</v>
+        <v>-72.9728145746979</v>
       </c>
       <c r="H8" t="n">
-        <v>43.2172371363012</v>
+        <v>-66.526485623803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.88142333260069</v>
+        <v>-5.05088592993916</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0995591912722</v>
+        <v>-27.9395086611222</v>
       </c>
       <c r="C9" t="n">
-        <v>39.9724317955584</v>
+        <v>-144.290388398151</v>
       </c>
       <c r="D9" t="n">
-        <v>39.5578022168011</v>
+        <v>-218.996288865133</v>
       </c>
       <c r="E9" t="n">
-        <v>12.8237163357573</v>
+        <v>-96.4659720928358</v>
       </c>
       <c r="F9" t="n">
-        <v>7.8099879531479</v>
+        <v>-72.243872716432</v>
       </c>
       <c r="G9" t="n">
-        <v>5.82782466349817</v>
+        <v>-61.8442941044644</v>
       </c>
       <c r="H9" t="n">
-        <v>4.81731859410932</v>
+        <v>-56.0355495386187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5679896761838</v>
+        <v>-5.14582093374976</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.5251327612888</v>
+        <v>-23.9659548381313</v>
       </c>
       <c r="C10" t="n">
-        <v>-45.0145291150315</v>
+        <v>-119.192228051212</v>
       </c>
       <c r="D10" t="n">
-        <v>-72.2707616985781</v>
+        <v>-176.690137553008</v>
       </c>
       <c r="E10" t="n">
-        <v>-32.4255273049413</v>
+        <v>-76.6114491214941</v>
       </c>
       <c r="F10" t="n">
-        <v>-24.392784027087</v>
+        <v>-56.7728775447299</v>
       </c>
       <c r="G10" t="n">
-        <v>-20.8791044142796</v>
+        <v>-48.2578174553805</v>
       </c>
       <c r="H10" t="n">
-        <v>-18.8909974486287</v>
+        <v>-43.5150941959884</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0892714187483777</v>
+        <v>-0.188455133335197</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.361262054197357</v>
+        <v>-0.628990532503499</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.73642302633641</v>
+        <v>-3.88830975188998</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.80510878143728</v>
+        <v>-6.3977553639859</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.2329231326759</v>
+        <v>-2.90333486092494</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.71095838339649</v>
+        <v>-2.2013034398786</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.48144043039089</v>
+        <v>-1.89565854633038</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.35100979132877</v>
+        <v>-1.72334167486002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.169600509989453</v>
+        <v>-0.235794762419661</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.562455268987983</v>
+        <v>-0.738840990595659</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.49376875732327</v>
+        <v>-4.25764734784975</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.73721644288212</v>
+        <v>-6.79496399598089</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.59412587259523</v>
+        <v>-3.03949437186755</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.96178821095569</v>
+        <v>-2.2875547379727</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.68666697135301</v>
+        <v>-1.96186335413027</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.5317501264911</v>
+        <v>-1.77912042662096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.238124025014692</v>
+        <v>-0.271232478592639</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.713017741024535</v>
+        <v>-0.799518578565803</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.03249427539832</v>
+        <v>-4.4091996997079</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.38433610360493</v>
+        <v>-6.90687659144244</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.84334749852499</v>
+        <v>-3.06344538821673</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.13487973085931</v>
+        <v>-2.29588689406261</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.82842097655723</v>
+        <v>-1.9644395968813</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.6566549632144</v>
+        <v>-1.77892263317473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.05008723716126</v>
+        <v>-1.18457319655244</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0702325203934</v>
+        <v>-8.70970456540208</v>
       </c>
       <c r="C8" t="n">
-        <v>50.4303624340571</v>
+        <v>-46.800039008214</v>
       </c>
       <c r="D8" t="n">
-        <v>63.3613110777757</v>
+        <v>-72.6733810348771</v>
       </c>
       <c r="E8" t="n">
-        <v>24.932052318877</v>
+        <v>-32.5160699707883</v>
       </c>
       <c r="F8" t="n">
-        <v>17.4390682328805</v>
+        <v>-24.6257108474442</v>
       </c>
       <c r="G8" t="n">
-        <v>14.2968337784272</v>
+        <v>-21.2548558577382</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5879226566145</v>
+        <v>-19.3772279566987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.76839995842469</v>
+        <v>-2.14309774634029</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5581607207678</v>
+        <v>-11.8547713957633</v>
       </c>
       <c r="C9" t="n">
-        <v>16.9603569918345</v>
+        <v>-61.2226073769928</v>
       </c>
       <c r="D9" t="n">
-        <v>16.7844290995545</v>
+        <v>-92.9204222058932</v>
       </c>
       <c r="E9" t="n">
-        <v>5.44112022327926</v>
+        <v>-40.9306427146281</v>
       </c>
       <c r="F9" t="n">
-        <v>3.31378847463651</v>
+        <v>-30.6531731171654</v>
       </c>
       <c r="G9" t="n">
-        <v>2.47275390409772</v>
+        <v>-26.2406178159086</v>
       </c>
       <c r="H9" t="n">
-        <v>2.04399480915682</v>
+        <v>-23.7759596231071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.263823055553483</v>
+        <v>-2.39015999585462</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.49531620339943</v>
+        <v>-11.1318421791289</v>
       </c>
       <c r="C10" t="n">
-        <v>-20.9086029436666</v>
+        <v>-55.3630798608435</v>
       </c>
       <c r="D10" t="n">
-        <v>-33.5687319294278</v>
+        <v>-82.0700338932137</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.061192219195</v>
+        <v>-35.5849189608726</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.3300982136158</v>
+        <v>-26.3701870904561</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.69804444476025</v>
+        <v>-22.4150638458098</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.77459728288709</v>
+        <v>-20.2121369363909</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0819446713861536</v>
+        <v>-0.172988109617863</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.331612297984535</v>
+        <v>-0.577367574232012</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.5118373697933</v>
+        <v>-3.56918562887734</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.41074047651734</v>
+        <v>-5.87267423617991</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.04966107745422</v>
+        <v>-2.6650502975991</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.57053539025734</v>
+        <v>-2.02063649856959</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.35985459790566</v>
+        <v>-1.74007671007491</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.24012875500451</v>
+        <v>-1.58190235141787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.155542450274537</v>
+        <v>-0.216249910515818</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.515833771453017</v>
+        <v>-0.677599012217955</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.2041728721245</v>
+        <v>-3.90473413629839</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.26166285311725</v>
+        <v>-6.23173450084467</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.37910071478632</v>
+        <v>-2.78755295149374</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.79917705006149</v>
+        <v>-2.09794103274529</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.54686040471042</v>
+        <v>-1.7992459646744</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.40478450151814</v>
+        <v>-1.63165046206119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.218138288228705</v>
+        <v>-0.248467951054399</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.653174199848979</v>
+        <v>-0.732415026684648</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.69404724480517</v>
+        <v>-4.03913580283827</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.84849911314565</v>
+        <v>-6.32718280556195</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.60470549382551</v>
+        <v>-2.80633057931255</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.95569938831277</v>
+        <v>-2.10319322885053</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.67496170100031</v>
+        <v>-1.79956428573696</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.51761200004443</v>
+        <v>-1.62961775095181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.69480695017503</v>
+        <v>-1.11501130616476</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3027070651735</v>
+        <v>-8.19824312422569</v>
       </c>
       <c r="C8" t="n">
-        <v>47.4689318073479</v>
+        <v>-44.0517924725811</v>
       </c>
       <c r="D8" t="n">
-        <v>59.6405341862844</v>
+        <v>-68.4057698983399</v>
       </c>
       <c r="E8" t="n">
-        <v>23.4679632312687</v>
+        <v>-30.6066233433201</v>
       </c>
       <c r="F8" t="n">
-        <v>16.4149909057811</v>
+        <v>-23.1796111014139</v>
       </c>
       <c r="G8" t="n">
-        <v>13.4572784119203</v>
+        <v>-20.006703394315</v>
       </c>
       <c r="H8" t="n">
-        <v>11.8487199643735</v>
+        <v>-18.2393357512495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.569170922989</v>
+        <v>-2.02979573446301</v>
       </c>
       <c r="B9" t="n">
-        <v>5.26431001186958</v>
+        <v>-11.2280293576183</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0636911385792</v>
+        <v>-57.985869995307</v>
       </c>
       <c r="D9" t="n">
-        <v>15.8970642612318</v>
+        <v>-88.0078740972536</v>
       </c>
       <c r="E9" t="n">
-        <v>5.15345725073569</v>
+        <v>-38.7667077401656</v>
       </c>
       <c r="F9" t="n">
-        <v>3.13859399190551</v>
+        <v>-29.0325908592968</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34202351968566</v>
+        <v>-24.8533200146196</v>
       </c>
       <c r="H9" t="n">
-        <v>1.93593220466775</v>
+        <v>-22.5189641994447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.249663451954109</v>
+        <v>-2.26187811385845</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.30771966529258</v>
+        <v>-10.5343869178494</v>
       </c>
       <c r="C10" t="n">
-        <v>-19.7864207716881</v>
+        <v>-52.3916971542585</v>
       </c>
       <c r="D10" t="n">
-        <v>-31.7670700676275</v>
+        <v>-77.665266671952</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.2528454615154</v>
+        <v>-33.6750466582237</v>
       </c>
       <c r="F10" t="n">
-        <v>-10.7220023854851</v>
+        <v>-24.9548771386445</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.17754230464658</v>
+        <v>-21.2120286598005</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.303657322734</v>
+        <v>-19.1273346763491</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.34018915226286</v>
+        <v>11.2733288306024</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6105863444002</v>
+        <v>37.6260225909344</v>
       </c>
       <c r="C5" t="n">
-        <v>163.691994214101</v>
+        <v>232.597508237294</v>
       </c>
       <c r="D5" t="n">
-        <v>287.440147696103</v>
+        <v>382.711782478643</v>
       </c>
       <c r="E5" t="n">
-        <v>133.572783519466</v>
+        <v>173.676609457713</v>
       </c>
       <c r="F5" t="n">
-        <v>102.34901077063</v>
+        <v>131.681303101193</v>
       </c>
       <c r="G5" t="n">
-        <v>88.6193165406683</v>
+        <v>113.397718412444</v>
       </c>
       <c r="H5" t="n">
-        <v>80.8169953318446</v>
+        <v>103.089775504405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.1374590709256</v>
+        <v>14.0940599371818</v>
       </c>
       <c r="B6" t="n">
-        <v>33.6193993104544</v>
+        <v>44.1624279464219</v>
       </c>
       <c r="C6" t="n">
-        <v>208.831552351145</v>
+        <v>254.490542097697</v>
       </c>
       <c r="D6" t="n">
-        <v>342.928195642665</v>
+        <v>406.152489765232</v>
       </c>
       <c r="E6" t="n">
-        <v>155.057581253138</v>
+        <v>181.6784029307</v>
       </c>
       <c r="F6" t="n">
-        <v>117.261131441317</v>
+        <v>136.733035355509</v>
       </c>
       <c r="G6" t="n">
-        <v>100.816426727942</v>
+        <v>117.265622942297</v>
       </c>
       <c r="H6" t="n">
-        <v>91.5566481206588</v>
+        <v>106.342607744749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.2157463326699</v>
+        <v>16.1922851447534</v>
       </c>
       <c r="B7" t="n">
-        <v>42.5663867241985</v>
+        <v>47.7303930187096</v>
       </c>
       <c r="C7" t="n">
-        <v>240.735539824128</v>
+        <v>263.224445568919</v>
       </c>
       <c r="D7" t="n">
-        <v>381.137949208419</v>
+        <v>412.33305026212</v>
       </c>
       <c r="E7" t="n">
-        <v>169.744765452243</v>
+        <v>182.884371033916</v>
       </c>
       <c r="F7" t="n">
-        <v>127.450007208563</v>
+        <v>137.061960432097</v>
       </c>
       <c r="G7" t="n">
-        <v>109.154751564721</v>
+        <v>117.274915848554</v>
       </c>
       <c r="H7" t="n">
-        <v>98.9005066429622</v>
+        <v>106.199754086539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.31994454952876</v>
+        <v>1.23740974693485</v>
       </c>
       <c r="B8" t="n">
-        <v>-13.6532154893508</v>
+        <v>9.09819110673618</v>
       </c>
       <c r="C8" t="n">
-        <v>-52.6797518287394</v>
+        <v>48.8875019241003</v>
       </c>
       <c r="D8" t="n">
-        <v>-66.1874708413087</v>
+        <v>75.9148951681399</v>
       </c>
       <c r="E8" t="n">
-        <v>-26.044118371289</v>
+        <v>33.9664125703419</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.2169181876072</v>
+        <v>25.7241128842962</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.9345279120116</v>
+        <v>22.2029047125212</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.1493927384902</v>
+        <v>20.2415273382693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.31224254523722</v>
+        <v>2.45238227956935</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.36029545637208</v>
+        <v>13.5656114374446</v>
       </c>
       <c r="C9" t="n">
-        <v>-19.4080176758027</v>
+        <v>70.0580445743836</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.2067004721211</v>
+        <v>106.330379571802</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.22636407478997</v>
+        <v>46.8376130095561</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.79202308775577</v>
+        <v>35.0769341685323</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.82961328595522</v>
+        <v>30.0275739856376</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.33897714561452</v>
+        <v>27.2072247563299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.336223697812716</v>
+        <v>3.04608871459058</v>
       </c>
       <c r="B10" t="n">
-        <v>4.45453160439732</v>
+        <v>14.1867401735688</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6465255777931</v>
+        <v>70.5563029510889</v>
       </c>
       <c r="D10" t="n">
-        <v>42.7809584591365</v>
+        <v>104.592414098537</v>
       </c>
       <c r="E10" t="n">
-        <v>19.1944169958234</v>
+        <v>45.3504452607059</v>
       </c>
       <c r="F10" t="n">
-        <v>14.4394033719729</v>
+        <v>33.6069256607063</v>
       </c>
       <c r="G10" t="n">
-        <v>12.3594670599528</v>
+        <v>28.56640272449</v>
       </c>
       <c r="H10" t="n">
-        <v>11.1825994095942</v>
+        <v>25.7589292459418</v>
       </c>
     </row>
     <row r="11">
@@ -3559,80 +3559,80 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.220973344231569</v>
+        <v>0.466482572300795</v>
       </c>
       <c r="B5" t="n">
-        <v>0.894231159078638</v>
+        <v>1.55693886583178</v>
       </c>
       <c r="C5" t="n">
-        <v>6.77346182954907</v>
+        <v>9.62472447878469</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8940750770802</v>
+        <v>15.8363496198061</v>
       </c>
       <c r="E5" t="n">
-        <v>5.52714966287449</v>
+        <v>7.18661832238819</v>
       </c>
       <c r="F5" t="n">
-        <v>4.23513148016403</v>
+        <v>5.44888150763561</v>
       </c>
       <c r="G5" t="n">
-        <v>3.66700620168286</v>
+        <v>4.69231938258392</v>
       </c>
       <c r="H5" t="n">
-        <v>3.34415153097291</v>
+        <v>4.26578381397542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.419481065003823</v>
+        <v>0.583202480159251</v>
       </c>
       <c r="B6" t="n">
-        <v>1.39114755767399</v>
+        <v>1.8274108115761</v>
       </c>
       <c r="C6" t="n">
-        <v>8.64130561453022</v>
+        <v>10.5306431212841</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1901322334897</v>
+        <v>16.8063099213201</v>
       </c>
       <c r="E6" t="n">
-        <v>6.416175775992</v>
+        <v>7.51772701782216</v>
       </c>
       <c r="F6" t="n">
-        <v>4.85218474929594</v>
+        <v>5.65791870436595</v>
       </c>
       <c r="G6" t="n">
-        <v>4.17171420943211</v>
+        <v>4.85237060450889</v>
       </c>
       <c r="H6" t="n">
-        <v>3.78855095671695</v>
+        <v>4.40038376874827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.588237779282899</v>
+        <v>0.670025592196697</v>
       </c>
       <c r="B7" t="n">
-        <v>1.76136772651858</v>
+        <v>1.97505074560179</v>
       </c>
       <c r="C7" t="n">
-        <v>9.96147061341229</v>
+        <v>10.8920460235416</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7712254844864</v>
+        <v>17.0620572522258</v>
       </c>
       <c r="E7" t="n">
-        <v>7.02392132905838</v>
+        <v>7.5676291462311</v>
       </c>
       <c r="F7" t="n">
-        <v>5.2737934017337</v>
+        <v>5.67152939719028</v>
       </c>
       <c r="G7" t="n">
-        <v>4.51674834060919</v>
+        <v>4.8527551385609</v>
       </c>
       <c r="H7" t="n">
-        <v>4.09243475763986</v>
+        <v>4.39447258289131</v>
       </c>
     </row>
     <row r="8">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>188.283044145318</v>
@@ -490,39 +502,45 @@
         <v>125.805152979066</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00480729224983987</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00480729224983987</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.625</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>191.058570376852</v>
@@ -537,39 +555,45 @@
         <v>125.923506258872</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00480282044594602</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00480282044594602</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.620833333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>194.24533986981</v>
@@ -584,39 +608,45 @@
         <v>125.9323839969</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00478355231327242</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00478355231327242</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.620833333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>189.358487994928</v>
@@ -631,39 +661,45 @@
         <v>111.123703032135</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00469134363563208</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00469134363563208</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6125</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>192.271986375456</v>
@@ -678,39 +714,45 @@
         <v>111.023047504026</v>
       </c>
       <c r="F6" t="n">
+        <v>0.0046813500703889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0046813500703889</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.6125</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>195.829666315126</v>
@@ -725,39 +767,45 @@
         <v>111.119513342744</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00466792035498774</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00466792035498774</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6125</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>196.060180349282</v>
@@ -772,39 +820,45 @@
         <v>1065.20304371457</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00447898708969172</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00447898708969172</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.620833333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>195.674357701058</v>
@@ -819,39 +873,45 @@
         <v>1071.37565023436</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00444233543187225</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00444233543187225</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.616666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>195.18386753806</v>
@@ -866,39 +926,45 @@
         <v>1068.22653012029</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00444169774184062</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00444169774184062</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.616666666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>197.461914901619</v>
@@ -913,33 +979,39 @@
         <v>1098.84351728559</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00436322903280473</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00436322903280473</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>-973.038364306528</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000444063217035144</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000444063217035144</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>-972.920011026722</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000439591413141292</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000439591413141292</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>-972.911133288694</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000420323280467698</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000420323280467698</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>-987.71981425346</v>
       </c>
       <c r="E5" t="n">
+        <v>0.00032811460282735</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00032811460282735</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>-987.820469781569</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000318121037584178</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000318121037584178</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>-987.72400394285</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000304691322183011</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000304691322183011</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>-33.64047357102</v>
       </c>
       <c r="E8" t="n">
+        <v>0.000115758056886994</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000115758056886994</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>-27.4678670512367</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0000791063990675279</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0000791063990675279</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0125000000000001</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>-30.6169871652996</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000784687090358985</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000784687090358985</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0125000000000001</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>-0.885511311665345</v>
       </c>
       <c r="E2" t="n">
+        <v>0.1017739874979</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1017739874979</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0344827586206897</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>-0.885403604536947</v>
       </c>
       <c r="E3" t="n">
+        <v>0.100749103436067</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.100749103436067</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0275862068965518</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>-0.885395525371999</v>
       </c>
       <c r="E4" t="n">
+        <v>0.0963330774771431</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0963330774771431</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0275862068965518</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>-0.898872131214245</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0751999494778835</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0751999494778835</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.013793103448276</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>-0.898963732544667</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0729095436412805</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0729095436412805</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.013793103448276</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>-0.89887594403138</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0698316132140221</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0698316132140221</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.013793103448276</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>-0.0306144351236835</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0265303645572287</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0265303645572287</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0275862068965518</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>-0.0249970688447877</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0181302421836604</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0181302421836604</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0206896551724139</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>-0.0278629183170056</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0179840912420447</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0179840912420447</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0206896551724139</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.49495748023551</v>
+        <v>1.86178508949375</v>
       </c>
       <c r="B2" t="n">
-        <v>22.3027305687899</v>
+        <v>7.55654459153158</v>
       </c>
       <c r="C2" t="n">
-        <v>131.985773250344</v>
+        <v>44.7190256788417</v>
       </c>
       <c r="D2" t="n">
-        <v>213.552823543274</v>
+        <v>72.3553301590094</v>
       </c>
       <c r="E2" t="n">
-        <v>96.5248665732772</v>
+        <v>32.7042671390788</v>
       </c>
       <c r="F2" t="n">
-        <v>73.161838363229</v>
+        <v>24.7884756660162</v>
       </c>
       <c r="G2" t="n">
-        <v>63.0439689049709</v>
+        <v>21.3603693407928</v>
       </c>
       <c r="H2" t="n">
-        <v>57.3587406746137</v>
+        <v>19.4341172837533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.88002749477604</v>
+        <v>2.43144869148549</v>
       </c>
       <c r="B3" t="n">
-        <v>32.2219024919311</v>
+        <v>8.82270946765293</v>
       </c>
       <c r="C3" t="n">
-        <v>179.585921073355</v>
+        <v>49.1725901817196</v>
       </c>
       <c r="D3" t="n">
-        <v>282.498493792394</v>
+        <v>77.3511786401807</v>
       </c>
       <c r="E3" t="n">
-        <v>125.821235719664</v>
+        <v>34.451231049863</v>
       </c>
       <c r="F3" t="n">
-        <v>94.5639409596583</v>
+        <v>25.8926417337485</v>
       </c>
       <c r="G3" t="n">
-        <v>81.0588087757128</v>
+        <v>22.1947887714339</v>
       </c>
       <c r="H3" t="n">
-        <v>73.4908327322609</v>
+        <v>20.1225941235153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.3744160346368</v>
+        <v>2.97084651147265</v>
       </c>
       <c r="B4" t="n">
-        <v>34.4726465176469</v>
+        <v>9.87168254157706</v>
       </c>
       <c r="C4" t="n">
-        <v>184.333615533971</v>
+        <v>52.7862847246428</v>
       </c>
       <c r="D4" t="n">
-        <v>284.29733293603</v>
+        <v>81.4121717264979</v>
       </c>
       <c r="E4" t="n">
-        <v>125.314556830006</v>
+        <v>35.8854235989967</v>
       </c>
       <c r="F4" t="n">
-        <v>93.6304654954047</v>
+        <v>26.8122794435747</v>
       </c>
       <c r="G4" t="n">
-        <v>79.9717226607975</v>
+        <v>22.900924012501</v>
       </c>
       <c r="H4" t="n">
-        <v>72.3371354528634</v>
+        <v>20.7146624728153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11.2733288306024</v>
+        <v>2.06774328768217</v>
       </c>
       <c r="B5" t="n">
-        <v>37.6260225909344</v>
+        <v>6.90132939645872</v>
       </c>
       <c r="C5" t="n">
-        <v>232.597508237294</v>
+        <v>42.6628144726584</v>
       </c>
       <c r="D5" t="n">
-        <v>382.711782478643</v>
+        <v>70.1966323548466</v>
       </c>
       <c r="E5" t="n">
-        <v>173.676609457713</v>
+        <v>31.8555990719196</v>
       </c>
       <c r="F5" t="n">
-        <v>131.681303101193</v>
+        <v>24.1528597889911</v>
       </c>
       <c r="G5" t="n">
-        <v>113.397718412444</v>
+        <v>20.799302017102</v>
       </c>
       <c r="H5" t="n">
-        <v>103.089775504405</v>
+        <v>18.9086289002096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.0940599371818</v>
+        <v>2.66632894695123</v>
       </c>
       <c r="B6" t="n">
-        <v>44.1624279464219</v>
+        <v>8.35469414249833</v>
       </c>
       <c r="C6" t="n">
-        <v>254.490542097697</v>
+        <v>48.144785969747</v>
       </c>
       <c r="D6" t="n">
-        <v>406.152489765232</v>
+        <v>76.8363512830283</v>
       </c>
       <c r="E6" t="n">
-        <v>181.6784029307</v>
+        <v>34.3701096014254</v>
       </c>
       <c r="F6" t="n">
-        <v>136.733035355509</v>
+        <v>25.8672981240209</v>
       </c>
       <c r="G6" t="n">
-        <v>117.265622942297</v>
+        <v>22.1844327558491</v>
       </c>
       <c r="H6" t="n">
-        <v>106.342607744749</v>
+        <v>20.1180053574259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16.1922851447534</v>
+        <v>3.19829163019707</v>
       </c>
       <c r="B7" t="n">
-        <v>47.7303930187096</v>
+        <v>9.42768208026641</v>
       </c>
       <c r="C7" t="n">
-        <v>263.224445568919</v>
+        <v>51.9919537977702</v>
       </c>
       <c r="D7" t="n">
-        <v>412.33305026212</v>
+        <v>81.4438068325565</v>
       </c>
       <c r="E7" t="n">
-        <v>182.884371033916</v>
+        <v>36.1232246062042</v>
       </c>
       <c r="F7" t="n">
-        <v>137.061960432097</v>
+        <v>27.0724062076202</v>
       </c>
       <c r="G7" t="n">
-        <v>117.274915848554</v>
+        <v>23.1640795871254</v>
       </c>
       <c r="H7" t="n">
-        <v>106.199754086539</v>
+        <v>20.9765194713126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.23740974693485</v>
+        <v>1.28665556860785</v>
       </c>
       <c r="B8" t="n">
-        <v>9.09819110673618</v>
+        <v>9.46027642075526</v>
       </c>
       <c r="C8" t="n">
-        <v>48.8875019241003</v>
+        <v>50.8331025691219</v>
       </c>
       <c r="D8" t="n">
-        <v>75.9148951681399</v>
+        <v>78.9361186545679</v>
       </c>
       <c r="E8" t="n">
-        <v>33.9664125703419</v>
+        <v>35.3181910741511</v>
       </c>
       <c r="F8" t="n">
-        <v>25.7241128842962</v>
+        <v>26.7478684179293</v>
       </c>
       <c r="G8" t="n">
-        <v>22.2029047125212</v>
+        <v>23.0865249432522</v>
       </c>
       <c r="H8" t="n">
-        <v>20.2415273382693</v>
+        <v>21.0470896414261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.45238227956935</v>
+        <v>2.79858058161826</v>
       </c>
       <c r="B9" t="n">
-        <v>13.5656114374446</v>
+        <v>15.4806438877375</v>
       </c>
       <c r="C9" t="n">
-        <v>70.0580445743836</v>
+        <v>79.9480100494146</v>
       </c>
       <c r="D9" t="n">
-        <v>106.330379571802</v>
+        <v>121.340843956024</v>
       </c>
       <c r="E9" t="n">
-        <v>46.8376130095561</v>
+        <v>53.4495928101848</v>
       </c>
       <c r="F9" t="n">
-        <v>35.0769341685323</v>
+        <v>40.0286805383355</v>
       </c>
       <c r="G9" t="n">
-        <v>30.0275739856376</v>
+        <v>34.2665114527201</v>
       </c>
       <c r="H9" t="n">
-        <v>27.2072247563299</v>
+        <v>31.048018702924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.04608871459058</v>
+        <v>3.50434860907074</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1867401735688</v>
+        <v>16.3210227451225</v>
       </c>
       <c r="C10" t="n">
-        <v>70.5563029510889</v>
+        <v>81.1709392846937</v>
       </c>
       <c r="D10" t="n">
-        <v>104.592414098537</v>
+        <v>120.327513479798</v>
       </c>
       <c r="E10" t="n">
-        <v>45.3504452607059</v>
+        <v>52.1730601636317</v>
       </c>
       <c r="F10" t="n">
-        <v>33.6069256607063</v>
+        <v>38.6628211549214</v>
       </c>
       <c r="G10" t="n">
-        <v>28.56640272449</v>
+        <v>32.8639915095764</v>
       </c>
       <c r="H10" t="n">
-        <v>25.7589292459418</v>
+        <v>29.6341559068153</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.568443877265744</v>
+        <v>1.86178508949375</v>
       </c>
       <c r="B2" t="n">
-        <v>2.30717902435758</v>
+        <v>7.55654459153158</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6537006810701</v>
+        <v>44.7190256788417</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0916714010284</v>
+        <v>72.3553301590094</v>
       </c>
       <c r="E2" t="n">
-        <v>9.9853310248218</v>
+        <v>32.7042671390788</v>
       </c>
       <c r="F2" t="n">
-        <v>7.56846603757542</v>
+        <v>24.7884756660162</v>
       </c>
       <c r="G2" t="n">
-        <v>6.52178988672115</v>
+        <v>21.3603693407928</v>
       </c>
       <c r="H2" t="n">
-        <v>5.93366282840833</v>
+        <v>19.4341172837533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.734898827153882</v>
+        <v>2.43144869148549</v>
       </c>
       <c r="B3" t="n">
-        <v>2.66664020622879</v>
+        <v>8.82270946765293</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8622831233122</v>
+        <v>49.1725901817196</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3791856931637</v>
+        <v>77.3511786401807</v>
       </c>
       <c r="E3" t="n">
-        <v>10.4127919216274</v>
+        <v>34.451231049863</v>
       </c>
       <c r="F3" t="n">
-        <v>7.82598132079933</v>
+        <v>25.8926417337485</v>
       </c>
       <c r="G3" t="n">
-        <v>6.70831520902453</v>
+        <v>22.1947887714339</v>
       </c>
       <c r="H3" t="n">
-        <v>6.08199995025609</v>
+        <v>20.1225941235153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.858572361487186</v>
+        <v>2.97084651147265</v>
       </c>
       <c r="B4" t="n">
-        <v>2.85290867732251</v>
+        <v>9.87168254157706</v>
       </c>
       <c r="C4" t="n">
-        <v>15.2551957683287</v>
+        <v>52.7862847246428</v>
       </c>
       <c r="D4" t="n">
-        <v>23.5280551395336</v>
+        <v>81.4121717264979</v>
       </c>
       <c r="E4" t="n">
-        <v>10.3708598755867</v>
+        <v>35.8854235989967</v>
       </c>
       <c r="F4" t="n">
-        <v>7.74872817893007</v>
+        <v>26.8122794435747</v>
       </c>
       <c r="G4" t="n">
-        <v>6.61834946158327</v>
+        <v>22.900924012501</v>
       </c>
       <c r="H4" t="n">
-        <v>5.98652155471975</v>
+        <v>20.7146624728153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.466482572300795</v>
+        <v>2.06774328768217</v>
       </c>
       <c r="B5" t="n">
-        <v>1.55693886583178</v>
+        <v>6.90132939645872</v>
       </c>
       <c r="C5" t="n">
-        <v>9.62472447878469</v>
+        <v>42.6628144726584</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8363496198061</v>
+        <v>70.1966323548466</v>
       </c>
       <c r="E5" t="n">
-        <v>7.18661832238819</v>
+        <v>31.8555990719196</v>
       </c>
       <c r="F5" t="n">
-        <v>5.44888150763561</v>
+        <v>24.1528597889911</v>
       </c>
       <c r="G5" t="n">
-        <v>4.69231938258392</v>
+        <v>20.799302017102</v>
       </c>
       <c r="H5" t="n">
-        <v>4.26578381397542</v>
+        <v>18.9086289002096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.583202480159251</v>
+        <v>2.66632894695123</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8274108115761</v>
+        <v>8.35469414249833</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5306431212841</v>
+        <v>48.144785969747</v>
       </c>
       <c r="D6" t="n">
-        <v>16.8063099213201</v>
+        <v>76.8363512830283</v>
       </c>
       <c r="E6" t="n">
-        <v>7.51772701782216</v>
+        <v>34.3701096014254</v>
       </c>
       <c r="F6" t="n">
-        <v>5.65791870436595</v>
+        <v>25.8672981240209</v>
       </c>
       <c r="G6" t="n">
-        <v>4.85237060450889</v>
+        <v>22.1844327558491</v>
       </c>
       <c r="H6" t="n">
-        <v>4.40038376874827</v>
+        <v>20.1180053574259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.670025592196697</v>
+        <v>3.19829163019707</v>
       </c>
       <c r="B7" t="n">
-        <v>1.97505074560179</v>
+        <v>9.42768208026641</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8920460235416</v>
+        <v>51.9919537977702</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0620572522258</v>
+        <v>81.4438068325565</v>
       </c>
       <c r="E7" t="n">
-        <v>7.5676291462311</v>
+        <v>36.1232246062042</v>
       </c>
       <c r="F7" t="n">
-        <v>5.67152939719028</v>
+        <v>27.0724062076202</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8527551385609</v>
+        <v>23.1640795871254</v>
       </c>
       <c r="H7" t="n">
-        <v>4.39447258289131</v>
+        <v>20.9765194713126</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>1.28665556860785</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.46027642075526</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50.8331025691219</v>
+      </c>
+      <c r="D8" t="n">
+        <v>78.9361186545679</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35.3181910741511</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26.7478684179293</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23.0865249432522</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21.0470896414261</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>2.79858058161826</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.4806438877375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>79.9480100494146</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121.340843956024</v>
+      </c>
+      <c r="E9" t="n">
+        <v>53.4495928101848</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40.0286805383355</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.2665114527201</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.048018702924</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>3.50434860907074</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.3210227451225</v>
+      </c>
+      <c r="C10" t="n">
+        <v>81.1709392846937</v>
+      </c>
+      <c r="D10" t="n">
+        <v>120.327513479798</v>
+      </c>
+      <c r="E10" t="n">
+        <v>52.1730601636317</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38.6628211549214</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32.8639915095764</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.6341559068153</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.49495748023551</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22.3027305687899</v>
+      </c>
+      <c r="C2" t="n">
+        <v>131.985773250344</v>
+      </c>
+      <c r="D2" t="n">
+        <v>213.552823543274</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96.5248665732772</v>
+      </c>
+      <c r="F2" t="n">
+        <v>73.161838363229</v>
+      </c>
+      <c r="G2" t="n">
+        <v>63.0439689049709</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57.3587406746137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8.88002749477604</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32.2219024919311</v>
+      </c>
+      <c r="C3" t="n">
+        <v>179.585921073355</v>
+      </c>
+      <c r="D3" t="n">
+        <v>282.498493792394</v>
+      </c>
+      <c r="E3" t="n">
+        <v>125.821235719664</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.5639409596583</v>
+      </c>
+      <c r="G3" t="n">
+        <v>81.0588087757128</v>
+      </c>
+      <c r="H3" t="n">
+        <v>73.4908327322609</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10.3744160346368</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.4726465176469</v>
+      </c>
+      <c r="C4" t="n">
+        <v>184.333615533971</v>
+      </c>
+      <c r="D4" t="n">
+        <v>284.29733293603</v>
+      </c>
+      <c r="E4" t="n">
+        <v>125.314556830006</v>
+      </c>
+      <c r="F4" t="n">
+        <v>93.6304654954047</v>
+      </c>
+      <c r="G4" t="n">
+        <v>79.9717226607975</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72.3371354528634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11.2733288306024</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37.6260225909344</v>
+      </c>
+      <c r="C5" t="n">
+        <v>232.597508237294</v>
+      </c>
+      <c r="D5" t="n">
+        <v>382.711782478643</v>
+      </c>
+      <c r="E5" t="n">
+        <v>173.676609457713</v>
+      </c>
+      <c r="F5" t="n">
+        <v>131.681303101193</v>
+      </c>
+      <c r="G5" t="n">
+        <v>113.397718412444</v>
+      </c>
+      <c r="H5" t="n">
+        <v>103.089775504405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14.0940599371818</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44.1624279464219</v>
+      </c>
+      <c r="C6" t="n">
+        <v>254.490542097697</v>
+      </c>
+      <c r="D6" t="n">
+        <v>406.152489765232</v>
+      </c>
+      <c r="E6" t="n">
+        <v>181.6784029307</v>
+      </c>
+      <c r="F6" t="n">
+        <v>136.733035355509</v>
+      </c>
+      <c r="G6" t="n">
+        <v>117.265622942297</v>
+      </c>
+      <c r="H6" t="n">
+        <v>106.342607744749</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16.1922851447534</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47.7303930187096</v>
+      </c>
+      <c r="C7" t="n">
+        <v>263.224445568919</v>
+      </c>
+      <c r="D7" t="n">
+        <v>412.33305026212</v>
+      </c>
+      <c r="E7" t="n">
+        <v>182.884371033916</v>
+      </c>
+      <c r="F7" t="n">
+        <v>137.061960432097</v>
+      </c>
+      <c r="G7" t="n">
+        <v>117.274915848554</v>
+      </c>
+      <c r="H7" t="n">
+        <v>106.199754086539</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.23740974693485</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.09819110673618</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48.8875019241003</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75.9148951681399</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.9664125703419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.7241128842962</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22.2029047125212</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.2415273382693</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.45238227956935</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.5656114374446</v>
+      </c>
+      <c r="C9" t="n">
+        <v>70.0580445743836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>106.330379571802</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46.8376130095561</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.0769341685323</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.0275739856376</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27.2072247563299</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.04608871459058</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.1867401735688</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70.5563029510889</v>
+      </c>
+      <c r="D10" t="n">
+        <v>104.592414098537</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45.3504452607059</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33.6069256607063</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.56640272449</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.7589292459418</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.568443877265744</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.30717902435758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.6537006810701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.0916714010284</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.9853310248218</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.56846603757542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.52178988672115</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.93366282840833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.734898827153882</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.66664020622879</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.8622831233122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.3791856931637</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.4127919216274</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.82598132079933</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.70831520902453</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.08199995025609</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.858572361487186</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.85290867732251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.2551957683287</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.5280551395336</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.3708598755867</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.74872817893007</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.61834946158327</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.98652155471975</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.466482572300795</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.55693886583178</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.62472447878469</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.8363496198061</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.18661832238819</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.44888150763561</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.69231938258392</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.26578381397542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.583202480159251</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.8274108115761</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.5306431212841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.8063099213201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.51772701782216</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.65791870436595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.85237060450889</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.40038376874827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.670025592196697</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.97505074560179</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.8920460235416</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.0620572522258</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.5676291462311</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.67152939719028</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.8527551385609</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.39447258289131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_7.xlsx
@@ -504,7 +504,7 @@
         <v>125.805152979066</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00480729224983987</v>
+        <v>1.71880082197831</v>
       </c>
       <c r="G2" t="n">
         <v>0.00480729224983987</v>
@@ -557,7 +557,7 @@
         <v>125.923506258872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00480282044594602</v>
+        <v>1.65179140454078</v>
       </c>
       <c r="G3" t="n">
         <v>0.00480282044594602</v>
@@ -610,7 +610,7 @@
         <v>125.9323839969</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00478355231327242</v>
+        <v>1.6156107249521</v>
       </c>
       <c r="G4" t="n">
         <v>0.00478355231327242</v>
@@ -663,7 +663,7 @@
         <v>111.123703032135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00469134363563208</v>
+        <v>1.61784823898333</v>
       </c>
       <c r="G5" t="n">
         <v>0.00469134363563208</v>
@@ -716,7 +716,7 @@
         <v>111.023047504026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0046813500703889</v>
+        <v>1.58587994836586</v>
       </c>
       <c r="G6" t="n">
         <v>0.0046813500703889</v>
@@ -769,7 +769,7 @@
         <v>111.119513342744</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00466792035498774</v>
+        <v>1.54486031550324</v>
       </c>
       <c r="G7" t="n">
         <v>0.00466792035498774</v>
@@ -822,7 +822,7 @@
         <v>1065.20304371457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00447898708969172</v>
+        <v>1.5506945122159</v>
       </c>
       <c r="G8" t="n">
         <v>0.00447898708969172</v>
@@ -875,7 +875,7 @@
         <v>1071.37565023436</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00444233543187225</v>
+        <v>1.56052126102366</v>
       </c>
       <c r="G9" t="n">
         <v>0.00444233543187225</v>
@@ -928,7 +928,7 @@
         <v>1068.22653012029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00444169774184062</v>
+        <v>1.57284492406809</v>
       </c>
       <c r="G10" t="n">
         <v>0.00444169774184062</v>
@@ -981,7 +981,7 @@
         <v>1098.84351728559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00436322903280473</v>
+        <v>1.44890970553972</v>
       </c>
       <c r="G11" t="n">
         <v>0.00436322903280473</v>
@@ -1695,7 +1695,7 @@
         <v>-973.038364306528</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000444063217035144</v>
+        <v>0.269891116438587</v>
       </c>
       <c r="F2" t="n">
         <v>0.000444063217035144</v>
@@ -1745,7 +1745,7 @@
         <v>-972.920011026722</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000439591413141292</v>
+        <v>0.202881699001058</v>
       </c>
       <c r="F3" t="n">
         <v>0.000439591413141292</v>
@@ -1795,7 +1795,7 @@
         <v>-972.911133288694</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000420323280467698</v>
+        <v>0.166701019412376</v>
       </c>
       <c r="F4" t="n">
         <v>0.000420323280467698</v>
@@ -1845,7 +1845,7 @@
         <v>-987.71981425346</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00032811460282735</v>
+        <v>0.168938533443608</v>
       </c>
       <c r="F5" t="n">
         <v>0.00032811460282735</v>
@@ -1895,7 +1895,7 @@
         <v>-987.820469781569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000318121037584178</v>
+        <v>0.136970242826136</v>
       </c>
       <c r="F6" t="n">
         <v>0.000318121037584178</v>
@@ -1945,7 +1945,7 @@
         <v>-987.72400394285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000304691322183011</v>
+        <v>0.0959506099635203</v>
       </c>
       <c r="F7" t="n">
         <v>0.000304691322183011</v>
@@ -1995,7 +1995,7 @@
         <v>-33.64047357102</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000115758056886994</v>
+        <v>0.101784806676182</v>
       </c>
       <c r="F8" t="n">
         <v>0.000115758056886994</v>
@@ -2045,7 +2045,7 @@
         <v>-27.4678670512367</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000791063990675279</v>
+        <v>0.111611555483941</v>
       </c>
       <c r="F9" t="n">
         <v>0.0000791063990675279</v>
@@ -2095,7 +2095,7 @@
         <v>-30.6169871652996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000784687090358985</v>
+        <v>0.123935218528368</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000784687090358985</v>
@@ -2259,7 +2259,7 @@
         <v>-0.885511311665345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1017739874979</v>
+        <v>0.186271867326648</v>
       </c>
       <c r="F2" t="n">
         <v>0.1017739874979</v>
@@ -2309,7 +2309,7 @@
         <v>-0.885403604536947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.100749103436067</v>
+        <v>0.140023700735364</v>
       </c>
       <c r="F3" t="n">
         <v>0.100749103436067</v>
@@ -2359,7 +2359,7 @@
         <v>-0.885395525371999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0963330774771431</v>
+        <v>0.115052731564304</v>
       </c>
       <c r="F4" t="n">
         <v>0.0963330774771431</v>
@@ -2409,7 +2409,7 @@
         <v>-0.898872131214245</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0751999494778835</v>
+        <v>0.116597005871168</v>
       </c>
       <c r="F5" t="n">
         <v>0.0751999494778835</v>
@@ -2459,7 +2459,7 @@
         <v>-0.898963732544667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0729095436412805</v>
+        <v>0.0945333186067069</v>
       </c>
       <c r="F6" t="n">
         <v>0.0729095436412805</v>
@@ -2509,7 +2509,7 @@
         <v>-0.89887594403138</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0698316132140221</v>
+        <v>0.066222629054568</v>
       </c>
       <c r="F7" t="n">
         <v>0.0698316132140221</v>
@@ -2559,7 +2559,7 @@
         <v>-0.0306144351236835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0265303645572287</v>
+        <v>0.0702492407132209</v>
       </c>
       <c r="F8" t="n">
         <v>0.0265303645572287</v>
@@ -2609,7 +2609,7 @@
         <v>-0.0249970688447877</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0181302421836604</v>
+        <v>0.0770314085530713</v>
       </c>
       <c r="F9" t="n">
         <v>0.0181302421836604</v>
@@ -2659,7 +2659,7 @@
         <v>-0.0278629183170056</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0179840912420447</v>
+        <v>0.0855368820117066</v>
       </c>
       <c r="F10" t="n">
         <v>0.0179840912420447</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.86178508949375</v>
+        <v>1.01722978966888</v>
       </c>
       <c r="B2" t="n">
-        <v>7.55654459153158</v>
+        <v>4.12869471822727</v>
       </c>
       <c r="C2" t="n">
-        <v>44.7190256788417</v>
+        <v>24.4332846697437</v>
       </c>
       <c r="D2" t="n">
-        <v>72.3553301590094</v>
+        <v>39.5330254251229</v>
       </c>
       <c r="E2" t="n">
-        <v>32.7042671390788</v>
+        <v>17.8687405817638</v>
       </c>
       <c r="F2" t="n">
-        <v>24.7884756660162</v>
+        <v>13.5437629349638</v>
       </c>
       <c r="G2" t="n">
-        <v>21.3603693407928</v>
+        <v>11.6707369365024</v>
       </c>
       <c r="H2" t="n">
-        <v>19.4341172837533</v>
+        <v>10.6182841126567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.43144869148549</v>
+        <v>1.74946294399783</v>
       </c>
       <c r="B3" t="n">
-        <v>8.82270946765293</v>
+        <v>6.34806867747951</v>
       </c>
       <c r="C3" t="n">
-        <v>49.1725901817196</v>
+        <v>35.3803988069156</v>
       </c>
       <c r="D3" t="n">
-        <v>77.3511786401807</v>
+        <v>55.6553059003177</v>
       </c>
       <c r="E3" t="n">
-        <v>34.451231049863</v>
+        <v>24.7881653056886</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8926417337485</v>
+        <v>18.6301349454879</v>
       </c>
       <c r="G3" t="n">
-        <v>22.1947887714339</v>
+        <v>15.9694755811442</v>
       </c>
       <c r="H3" t="n">
-        <v>20.1225941235153</v>
+        <v>14.4785011830502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.97084651147265</v>
+        <v>2.48747494536834</v>
       </c>
       <c r="B4" t="n">
-        <v>9.87168254157706</v>
+        <v>8.26551048530299</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7862847246428</v>
+        <v>44.1976925447222</v>
       </c>
       <c r="D4" t="n">
-        <v>81.4121717264979</v>
+        <v>68.1660047517244</v>
       </c>
       <c r="E4" t="n">
-        <v>35.8854235989967</v>
+        <v>30.0466859400911</v>
       </c>
       <c r="F4" t="n">
-        <v>26.8122794435747</v>
+        <v>22.4497876570021</v>
       </c>
       <c r="G4" t="n">
-        <v>22.900924012501</v>
+        <v>19.1748292908753</v>
       </c>
       <c r="H4" t="n">
-        <v>20.7146624728153</v>
+        <v>17.3442834235646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.06774328768217</v>
+        <v>1.3336036342026</v>
       </c>
       <c r="B5" t="n">
-        <v>6.90132939645872</v>
+        <v>4.45105445089529</v>
       </c>
       <c r="C5" t="n">
-        <v>42.6628144726584</v>
+        <v>27.5156421810103</v>
       </c>
       <c r="D5" t="n">
-        <v>70.1966323548466</v>
+        <v>45.2737458150059</v>
       </c>
       <c r="E5" t="n">
-        <v>31.8555990719196</v>
+        <v>20.5454627492147</v>
       </c>
       <c r="F5" t="n">
-        <v>24.1528597889911</v>
+        <v>15.577534108255</v>
       </c>
       <c r="G5" t="n">
-        <v>20.799302017102</v>
+        <v>13.4146365867194</v>
       </c>
       <c r="H5" t="n">
-        <v>18.9086289002096</v>
+        <v>12.1952354382319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.66632894695123</v>
+        <v>2.05642655504911</v>
       </c>
       <c r="B6" t="n">
-        <v>8.35469414249833</v>
+        <v>6.44362163700467</v>
       </c>
       <c r="C6" t="n">
-        <v>48.144785969747</v>
+        <v>37.1320337157014</v>
       </c>
       <c r="D6" t="n">
-        <v>76.8363512830283</v>
+        <v>59.2606224945249</v>
       </c>
       <c r="E6" t="n">
-        <v>34.3701096014254</v>
+        <v>26.508209410972</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8672981240209</v>
+        <v>19.9503511486956</v>
       </c>
       <c r="G6" t="n">
-        <v>22.1844327558491</v>
+        <v>17.1099131185571</v>
       </c>
       <c r="H6" t="n">
-        <v>20.1180053574259</v>
+        <v>15.5161652124491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.19829163019707</v>
+        <v>3.37259132194118</v>
       </c>
       <c r="B7" t="n">
-        <v>9.42768208026641</v>
+        <v>9.94146952383067</v>
       </c>
       <c r="C7" t="n">
-        <v>51.9919537977702</v>
+        <v>54.8253982012023</v>
       </c>
       <c r="D7" t="n">
-        <v>81.4438068325565</v>
+        <v>85.8823109049655</v>
       </c>
       <c r="E7" t="n">
-        <v>36.1232246062042</v>
+        <v>38.0918590028357</v>
       </c>
       <c r="F7" t="n">
-        <v>27.0724062076202</v>
+        <v>28.5477913826954</v>
       </c>
       <c r="G7" t="n">
-        <v>23.1640795871254</v>
+        <v>24.4264697623838</v>
       </c>
       <c r="H7" t="n">
-        <v>20.9765194713126</v>
+        <v>22.119692546336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.28665556860785</v>
+        <v>0.4859190070695</v>
       </c>
       <c r="B8" t="n">
-        <v>9.46027642075526</v>
+        <v>3.57277288276166</v>
       </c>
       <c r="C8" t="n">
-        <v>50.8331025691219</v>
+        <v>19.1976557901784</v>
       </c>
       <c r="D8" t="n">
-        <v>78.9361186545679</v>
+        <v>29.8110553705133</v>
       </c>
       <c r="E8" t="n">
-        <v>35.3181910741511</v>
+        <v>13.338286295851</v>
       </c>
       <c r="F8" t="n">
-        <v>26.7478684179293</v>
+        <v>10.1016138117902</v>
       </c>
       <c r="G8" t="n">
-        <v>23.0865249432522</v>
+        <v>8.71886894271816</v>
       </c>
       <c r="H8" t="n">
-        <v>21.0470896414261</v>
+        <v>7.94865475251492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.79858058161826</v>
+        <v>0.658678643793347</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4806438877375</v>
+        <v>3.64355044410638</v>
       </c>
       <c r="C9" t="n">
-        <v>79.9480100494146</v>
+        <v>18.8166984289139</v>
       </c>
       <c r="D9" t="n">
-        <v>121.340843956024</v>
+        <v>28.5589856010071</v>
       </c>
       <c r="E9" t="n">
-        <v>53.4495928101848</v>
+        <v>12.579986274028</v>
       </c>
       <c r="F9" t="n">
-        <v>40.0286805383355</v>
+        <v>9.42121773552147</v>
       </c>
       <c r="G9" t="n">
-        <v>34.2665114527201</v>
+        <v>8.0650239051382</v>
       </c>
       <c r="H9" t="n">
-        <v>31.048018702924</v>
+        <v>7.30751402551609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.50434860907074</v>
+        <v>0.736787730009088</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3210227451225</v>
+        <v>3.43148774316556</v>
       </c>
       <c r="C10" t="n">
-        <v>81.1709392846937</v>
+        <v>17.0661537335276</v>
       </c>
       <c r="D10" t="n">
-        <v>120.327513479798</v>
+        <v>25.2988059706559</v>
       </c>
       <c r="E10" t="n">
-        <v>52.1730601636317</v>
+        <v>10.9693625988264</v>
       </c>
       <c r="F10" t="n">
-        <v>38.6628211549214</v>
+        <v>8.12884088094069</v>
       </c>
       <c r="G10" t="n">
-        <v>32.8639915095764</v>
+        <v>6.90963953777406</v>
       </c>
       <c r="H10" t="n">
-        <v>29.6341559068153</v>
+        <v>6.23056804474361</v>
       </c>
     </row>
     <row r="11">
